--- a/biology/Zoologie/Bisetocreagris_japonica/Bisetocreagris_japonica.xlsx
+++ b/biology/Zoologie/Bisetocreagris_japonica/Bisetocreagris_japonica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bisetocreagris japonica est une espèce de pseudoscorpions de la famille des Neobisiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Japon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Japon.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Microcreagris gigas japonica par Ellingsen en 1907. Elle est élevée au rang d'espèce par Kishida en 1928[2]. Elle est placée dans le genre Bisetocreagris par Ćurčić, Dimitrijević, Makarov et Lučić en 1999[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Microcreagris gigas japonica par Ellingsen en 1907. Elle est élevée au rang d'espèce par Kishida en 1928. Elle est placée dans le genre Bisetocreagris par Ćurčić, Dimitrijević, Makarov et Lučić en 1999.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, le Japon.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ellingsen, 1907 : On some pseudoscorpions from Japan collected by Hans Sauter. Nytt Magasin for Naturvidenskapene, vol. 45, p. 1-17.</t>
         </is>
